--- a/visual_servoing/image_process/resource/data/DCT_VS_data_2D.xlsx
+++ b/visual_servoing/image_process/resource/data/DCT_VS_data_2D.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2022_11_18_17_32_32_DCT_VS_data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2022_11_20_16_59_00_DCT_VS_data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">camera velocity</t>
   </si>
   <si>
     <t xml:space="preserve">camera pose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camera desired pose</t>
   </si>
   <si>
     <t xml:space="preserve">error feature</t>
@@ -130,7 +133,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -138,7 +141,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.88"/>
@@ -379,12 +382,30 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>1090.97</v>
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>1090.97</v>
+      <c r="A15" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,18 +424,18 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>3</v>
+      <c r="A19" s="0" t="n">
+        <v>1090.97</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>0.108969</v>
+        <v>1090.97</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>0.108969</v>
+      <c r="A21" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,18 +454,18 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>4</v>
+      <c r="A25" s="0" t="n">
+        <v>0.108969</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>4</v>
+        <v>0.108969</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>4</v>
+      <c r="A27" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -459,6 +480,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
         <v>4</v>
       </c>
     </row>
